--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3395.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3395.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.764212863688845</v>
+        <v>1.123485088348389</v>
       </c>
       <c r="B1">
-        <v>2.154295265565541</v>
+        <v>3.476093769073486</v>
       </c>
       <c r="C1">
-        <v>2.332978411970543</v>
+        <v>4.765398979187012</v>
       </c>
       <c r="D1">
-        <v>2.809496958418431</v>
+        <v>2.173427581787109</v>
       </c>
       <c r="E1">
-        <v>3.861961504500319</v>
+        <v>1.346295356750488</v>
       </c>
     </row>
   </sheetData>
